--- a/xls/fase_03.xlsx
+++ b/xls/fase_03.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Planilha1!$A$1:$C$45</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
@@ -35,16 +38,16 @@
     <t>N</t>
   </si>
   <si>
-    <t>Accounting Information Systems: The Challenge of the Real-time Reporting </t>
-  </si>
-  <si>
-    <t>Real-time reporting in accounting or simply real-time accounting offers many benefits when compared to conventional periodic reporting. Traditionally, enterprises require financial or non-financial reporting based on quarterly and annual periods. Yet, the rapid change that occurs on market and society causes this periodic reporting to become quickly outdated. Higher competition among enterprises demands for more updated information to enable management to rapidly adapt to opportunities and answer problems. Real-time accounting addresses these needs, but needs new technological answers. In this article we present some technologies which can help the implementation of real-time accounting, namely, business process management, mobile devices, cloud computing, business intelligence, enterprise architecture and enterprise application integration. </t>
+    <t>Accounting Information Systems: The Challenge of the Real-time Reporting</t>
+  </si>
+  <si>
+    <t>Real-time reporting in accounting or simply real-time accounting offers many benefits when compared to conventional periodic reporting. Traditionally, enterprises require financial or non-financial reporting based on quarterly and annual periods. Yet, the rapid change that occurs on market and society causes this periodic reporting to become quickly outdated. Higher competition among enterprises demands for more updated information to enable management to rapidly adapt to opportunities and answer problems. Real-time accounting addresses these needs, but needs new technological answers. In this article we present some technologies which can help the implementation of real-time accounting, namely, business process management, mobile devices, cloud computing, business intelligence, enterprise architecture and enterprise application integration.</t>
   </si>
   <si>
     <t>S</t>
   </si>
   <si>
-    <t>An ontology modelling perspective on business reporting </t>
+    <t>An ontology modelling perspective on business reporting</t>
   </si>
   <si>
     <t>In this paper, we discuss the motivation and the fundamentals of an ontology representation of business reporting data and metadata structures as defined in the eXtensible business reporting language (XBRL) standard.
@@ -115,7 +118,7 @@
 necessary  to  develop.  In  doing  so,  the  relationship  between  company  performance  and  reporting  its  key 
 performance indicators is important, therefore, the development of modern and advanced methods and metrics 
 to identify these indicators mainly based on the quantification with the possibility of utilization of information 
-and communication technology are discussed.  </t>
+and communication technology are discussed.</t>
   </si>
   <si>
     <t>Corporate social responsibility and sustainability reporting on the Internet</t>
@@ -124,7 +127,7 @@
     <t>All material related to environmental and social performance on the corporate internet sites of 454 Fortune Global 500 and Fortune 1000 companies in 25 industrial sectors was analyzed using the Pacific Sustainability Index. Maximum scores for individual sectors were 20–75 percent of the total possible, highest in the largest and most environmentally sensitive sectors and ranging generally linearly, as shown by plotting score versus rank, down to nearly zero in every sector. None of the variation in score is explained by corporate revenue in the Asian and European firms in this sample (revenues greater than about $9 billion), but there is a very weak correlation between score and revenue for American firms of this size, and a stronger one when Fortune 1000 companies (all American) with revenues smaller than this are included, suggesting that, as corporate size reaches a certain threshold, sustainability reporting becomes independent of it. Copyright © 2009 John Wiley &amp; Sons, Ltd and ERP Environment.</t>
   </si>
   <si>
-    <t>\CSR\ reporting practices of Eurozone companies </t>
+    <t>\CSR\ reporting practices of Eurozone companies</t>
   </si>
   <si>
     <t>Abstract
@@ -132,8 +135,7 @@
 Communication of social and environmental dimensions of the company plays a key role in the sustainable development of organizations, and therefore should be investigated more in depth.
 The aim of this empirical study is to analyse the extent to which Eurozone companies report on CSR indicators, according to the Integrated Scorecard Taxonomy Scoreboard of the Spanish Accounting and Business Association (AECA), and the factors that can influence its use.
 A content analysis was conducted on the annual sustainability reports on the websites of 306 Eurozone companies listed in the STOXX Europe 600.
-The results revealed an intensive use of corporate governance indicators, a moderate disclosure of environmental key performance indicators (KPIs), and a low use of social indicators. Our study also showed that there is an influence of sector, and the listing in DJSI on the extent of sustainability reporting.
-</t>
+The results revealed an intensive use of corporate governance indicators, a moderate disclosure of environmental key performance indicators (KPIs), and a low use of social indicators. Our study also showed that there is an influence of sector, and the listing in DJSI on the extent of sustainability reporting.</t>
   </si>
   <si>
     <t>E-Business Conflict Resolution: The Role of XBRL, the Next-Generation Digital Language of Business Reporting</t>
@@ -145,13 +147,13 @@
     <t>Electronic data reporting (EDR), metadata, standards and the European statistical system (ESS)</t>
   </si>
   <si>
-    <t>Environmental reporting on the internet by America's Toxic 100: Legitimacy and self-presentation </t>
-  </si>
-  <si>
-    <t>We are living in a fast changing world, especially in the ICT (Information and Communication Technologies) sector. In this difficult environment people like to use buzzwords and acronyms -- in the title of this paper you find some of them used a lot in the statistical context. It is no problem to add more: CASI, CSAQ, EDI, XML, XBRL -- all of them and many more will appear in this article (and in the glossary). It is not always easy for statisticians and ICT specialists to understand each other. However, ICT is needed to automate statistical data reporting in order to save resources and improve processes -- so both communities are condemned to co-operate. In this scenario, a third area with yet another jargon is playing an important role, namely e-business: more and more, statistical EDR is using e-business tools and methods, like for example EDIFACT or ebXML. This paper tries to shed some light on the ICT and e-business aspects of statistical data reporting. The questions addressed in this paper include: What is EDR? What is metadata for EDR? Which metadata standards for EDR are available or coming up? And how is the ESS concerned or involved? The current situation of EDI standardisation is examined in more detail: the transition from EDIFACT to XML and the adoption of ebXML for the ESS. </t>
-  </si>
-  <si>
-    <t>Examining the Adoption of Extensible Business Reporting Language among Public Listed Companies in Malaysia </t>
+    <t>Environmental reporting on the internet by America's Toxic 100: Legitimacy and self-presentation</t>
+  </si>
+  <si>
+    <t>We are living in a fast changing world, especially in the ICT (Information and Communication Technologies) sector. In this difficult environment people like to use buzzwords and acronyms -- in the title of this paper you find some of them used a lot in the statistical context. It is no problem to add more: CASI, CSAQ, EDI, XML, XBRL -- all of them and many more will appear in this article (and in the glossary). It is not always easy for statisticians and ICT specialists to understand each other. However, ICT is needed to automate statistical data reporting in order to save resources and improve processes -- so both communities are condemned to co-operate. In this scenario, a third area with yet another jargon is playing an important role, namely e-business: more and more, statistical EDR is using e-business tools and methods, like for example EDIFACT or ebXML. This paper tries to shed some light on the ICT and e-business aspects of statistical data reporting. The questions addressed in this paper include: What is EDR? What is metadata for EDR? Which metadata standards for EDR are available or coming up? And how is the ESS concerned or involved? The current situation of EDI standardisation is examined in more detail: the transition from EDIFACT to XML and the adoption of ebXML for the ESS.</t>
+  </si>
+  <si>
+    <t>Examining the Adoption of Extensible Business Reporting Language among Public Listed Companies in Malaysia</t>
   </si>
   <si>
     <t>This study examines the adoption of an accounting information systems language known as Extensible Business Reporting Language (XBRL) among public listed companies in Malaysia. Using 100 top public listed companies as the sample study, this study examines whether these companies have adopted XBRL, consistent with the call made by the Companies Commission of Malaysia (CCM) for such adoption. Such call was made to encourage listed public companies to provide their annual reports via XBRL and ultimately improves harmonisation between companies and between countries. The result of this study shows that to this date, no public listed companies have adopted XBRL. Such scenario indicates that there could be issues and challenges that have deter the implementation of XBRL among these companies. The result in this study serves as a starting point for CCM and other Malaysian regulators to consider the issues and challenges as to why such scenario exists and subsequently, provide strategies to encourage these companies to adopt XBRL</t>
@@ -176,8 +178,7 @@
   </si>
   <si>
     <t>The dissertation “Analisis Fundamental en XBRL – Taxonomía IPP “ consists in a web service aimed to ease the access to financial information of companies traded in the Spanish stock market.
-In the last few years, advances in technologies of information and computer science have allowed financial information to be shared in a new variety of ways, being XBRL the predominant standard. Because of this, the institutions responsible for guaranteeing the correct behavior of financial markets, as the American SEC (Securities and Exchange Commission) or the Spanish CNMV (Comisión Nacional del Mercado de Valores) supply all the relevant financial data under digital format as XBRL reports.
-</t>
+In the last few years, advances in technologies of information and computer science have allowed financial information to be shared in a new variety of ways, being XBRL the predominant standard. Because of this, the institutions responsible for guaranteeing the correct behavior of financial markets, as the American SEC (Securities and Exchange Commission) or the Spanish CNMV (Comisión Nacional del Mercado de Valores) supply all the relevant financial data under digital format as XBRL reports.</t>
   </si>
   <si>
     <t>s</t>
@@ -201,7 +202,7 @@
     <t>Interactive financial reporting: an introduction to eXtensible business reporting language (XBRL)</t>
   </si>
   <si>
-    <t> As technology provides more efficient and effective methods for financial reporting, students are encouraged to gain experience using these innovations. The SEC and other global financial communities have mandated the use of XBRL (eXtensible Business Reporting Language) for certain public filings. The following interactive exercise exposes students to XBRL and provides hands-on experience in using related tools. In Task 1, students learn about the underlying mechanics of XBRL. In Task 2, students use a programmed learning approach to analyze financial information using the SEC’s free interactive financial viewer. Task 3 includes discussion questions related to XBRL and specific accounting courses (i.e., financial, audit, managerial, and systems).</t>
+    <t>As technology provides more efficient and effective methods for financial reporting, students are encouraged to gain experience using these innovations. The SEC and other global financial communities have mandated the use of XBRL (eXtensible Business Reporting Language) for certain public filings. The following interactive exercise exposes students to XBRL and provides hands-on experience in using related tools. In Task 1, students learn about the underlying mechanics of XBRL. In Task 2, students use a programmed learning approach to analyze financial information using the SEC’s free interactive financial viewer. Task 3 includes discussion questions related to XBRL and specific accounting courses (i.e., financial, audit, managerial, and systems).</t>
   </si>
   <si>
     <t>INTERNAL REPORTING WITH XBRL GLOBAL LEDGER</t>
@@ -213,7 +214,7 @@
     <t>Internet Financial Reporting on the Web in Indonesian\&amp;\#58; Not Just Technical Problem</t>
   </si>
   <si>
-    <t>Issues with the communication and integrity of audit reports when financial reporting shifts to an information-centric paradigm </t>
+    <t>Issues with the communication and integrity of audit reports when financial reporting shifts to an information-centric paradigm</t>
   </si>
   <si>
     <t>A core application of XBRL is to facilitate the flow of tagged financial statements and annual reports, from companies and other entities directly to the databases, web sites, and computers of regulators, stakeholders and other information consumers. Increasingly, XBRL provides the technological foundation for the communication of financial information where there is independent assurance. This XBRL-based assurance may be on the financial statements (i.e., an electronically consumable form of today's standard PDF or HTML audit report) or focus on the quality of the XBRL exhibit (i.e., the instance document). Regardless of the type of XBRL assurance report, maintenance of the security and integrity of the instance document is paramount. This conceptual paper identifies and discusses the communication, security challenges and relevant research issues when there is independent assurance on financial statements formatted in XBRL. Successful electronic communication of assurance to information consumers should clearly distinguish the responsibilities of management (i.e., the financial statements) and the auditor (i.e., the audit report). It is important to have an integrated approach where the assurance report, financial statements and other reports in which facts in the financial statements are incorporated are inextricably tied at the level of automated data consumption. Further, as much as possible, human interaction should be accommodated. The paper sets out a range of alternatives for maintenance of security on the assurance report.</t>
@@ -287,13 +288,13 @@
 possibility  that  XBRL  will  be  more  significant  and  eventually  accepted  b
 y  stakeholders. 
 This  study  found  that  approximately  3.1%  understood  fully  what  XBRL  is  and  18% 
-understood the basic concepts. </t>
-  </si>
-  <si>
-    <t>The Integrated Reporting Movement: Meaning, Momentum, Motives and Materiality </t>
-  </si>
-  <si>
-    <t>The “now” economy and the traditional accounting reporting model: Opportunities and challenges for \AIS\ research </t>
+understood the basic concepts.</t>
+  </si>
+  <si>
+    <t>The Integrated Reporting Movement: Meaning, Momentum, Motives and Materiality</t>
+  </si>
+  <si>
+    <t>The “now” economy and the traditional accounting reporting model: Opportunities and challenges for \AIS\ research</t>
   </si>
   <si>
     <t>The real time economy (RTE) can be characterized by a substantive acceleration of business measurement, assessment, and decision processes. It implies a new business model where there is reduction of intra-process and inter-process latency. The AIS research literature has failed to develop new paradigms for accounting of accelerated processes. This paper places key relevant research questions for accounting, assurance, and business information systems in the RTE</t>
@@ -305,7 +306,7 @@
     <t>This paper analyzes how XBRL (eXtensible Business Reporting Language) can contribute to EBR (Enhanced Business Reporting) to improve financial reports' transparency. We examine XBRL's technological and organizational advantages that can facilitate the implementation of the EBR model. XBRL, and the consortium associated with it, can help EBR provide greater interaction with users, help companies identify relevant reporting data, and harness technological advances to overcome the weaknesses inherent in traditional business reporting models. EBR and XBRL efforts combined can work effectively to improve the current business reporting model.</t>
   </si>
   <si>
-    <t>Visualising intangibles: Measuring and reporting in the knowledge economy, Stefano Zambon, Giuseppe Marzo (Eds.). Ashgate, Aldershot, \UK\ (2007) </t>
+    <t>Visualising intangibles: Measuring and reporting in the knowledge economy, Stefano Zambon, Giuseppe Marzo (Eds.). Ashgate, Aldershot, \UK\ (2007)</t>
   </si>
   <si>
     <t>XBRL: A New Global Paradigm for Business Financial Reporting</t>
@@ -324,7 +325,7 @@
     <t>XBRL for Financial Reporting: Evidence on Italian GAAP versus IFRS</t>
   </si>
   <si>
-    <t>XSRL–Taxonomy of Scientific Reporting </t>
+    <t>XSRL–Taxonomy of Scientific Reporting</t>
   </si>
 </sst>
 </file>
@@ -403,7 +404,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -417,6 +418,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -440,16 +453,20 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+  <sheetPr filterMode="true">
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -461,21 +478,21 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="82.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" customFormat="false" ht="82.55" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -483,7 +500,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="69.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -493,8 +510,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="66.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+    <row r="4" customFormat="false" ht="66.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -505,7 +522,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="55.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -516,7 +533,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="134.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -526,16 +543,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="9.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+    <row r="7" customFormat="false" ht="9.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="B7" s="0"/>
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="188.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+    <row r="8" customFormat="false" ht="188.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -545,19 +563,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+    <row r="9" customFormat="false" ht="12.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="B9" s="0"/>
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="93.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+    <row r="10" customFormat="false" ht="93.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -565,7 +584,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="49.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -575,8 +594,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+    <row r="12" customFormat="false" ht="62.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -586,8 +605,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="241.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+    <row r="13" customFormat="false" ht="241.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -597,8 +616,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="320.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+    <row r="14" customFormat="false" ht="320.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -609,7 +628,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="550.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -619,24 +638,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+    <row r="16" customFormat="false" ht="24.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="B16" s="0"/>
       <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="287.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+    <row r="17" customFormat="false" ht="287.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="232.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="C17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="232.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -646,8 +667,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+    <row r="19" customFormat="false" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -657,8 +678,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+    <row r="20" customFormat="false" ht="258.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -669,7 +690,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -680,7 +701,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -690,16 +711,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+    <row r="23" customFormat="false" ht="34.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="s">
         <v>46</v>
       </c>
+      <c r="B23" s="0"/>
       <c r="C23" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+    <row r="24" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -709,8 +731,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+    <row r="25" customFormat="false" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -721,7 +743,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -731,16 +753,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+    <row r="27" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="B27" s="0"/>
       <c r="C27" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+    <row r="28" customFormat="false" ht="326.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -751,7 +774,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -762,7 +785,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="298.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -772,16 +795,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+    <row r="31" customFormat="false" ht="281.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
+      <c r="C31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -791,16 +815,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="197.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
+    <row r="33" customFormat="false" ht="197.45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="C33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -810,16 +835,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="s">
         <v>68</v>
       </c>
+      <c r="B35" s="0"/>
       <c r="C35" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="459.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+    <row r="36" customFormat="false" ht="459.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -829,16 +855,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7" t="s">
         <v>71</v>
       </c>
+      <c r="B37" s="0"/>
       <c r="C37" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -848,8 +875,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
+    <row r="39" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -859,16 +886,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
+    <row r="40" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="7" t="s">
         <v>76</v>
       </c>
+      <c r="B40" s="0"/>
       <c r="C40" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
+    <row r="41" customFormat="false" ht="247.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -878,8 +906,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
+    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -887,23 +915,23 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="7" t="s">
         <v>80</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
+    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="7" t="s">
         <v>81</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
+    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -911,6 +939,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C45">
+    <filterColumn colId="2">
+      <customFilters and="true">
+        <customFilter operator="equal" val="S"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -918,5 +953,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>